--- a/data/trans_orig/P78_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5486B16E-1510-4E2F-825A-9E76F41F1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9EAC45-0524-4804-8BBD-103CA3A801C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF234956-8B8E-49E1-970D-634A8B1409E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1477955D-BF82-4921-8C80-E726EA2EC09F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="238">
   <si>
     <t>Población con más de dos retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -128,7 +128,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -143,7 +143,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -152,7 +152,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -173,487 +173,586 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con más de dos retrasos en pagos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Población con más de dos retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con más de dos retrasos en pagos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Población con más de dos retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
     <t>Población con más de dos retrasos en pagos en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0682DD1-2B1D-4EEE-8C58-3FEB3B002511}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF0154E-BF4B-4D1B-8CD1-FEE5444837A3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1985,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2000,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,46 +2108,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D20" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I20" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N20" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -2060,10 +2159,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2075,10 +2174,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2090,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2107,7 +2206,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2125,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2140,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2155,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,46 +2263,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2215,63 +2314,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="N26" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2284,8 +2539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1D38F5-390C-4E2D-B5CD-7F7C60783277}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D5CE38-C431-4588-8F7E-3F672B7A0F9B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2301,7 +2556,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2414,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2429,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2444,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2477,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2492,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2584,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2632,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2879,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2894,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2909,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +3182,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2942,7 +3197,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2957,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3049,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3097,7 +3352,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3189,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3204,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3219,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,46 +3483,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I20" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N20" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3279,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3294,10 +3549,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3309,10 +3564,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3326,7 +3581,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3344,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3359,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3374,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,46 +3638,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I23" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N23" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3434,63 +3689,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3503,8 +3914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74D272B-8428-4AD3-AE67-285D7FCD38A2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EB326A-3207-4D64-82B3-BB08B6F1F96D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3520,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3648,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3696,7 +4107,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3788,7 +4199,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3803,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3818,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +4247,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3851,7 +4262,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3866,7 +4277,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3943,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3991,7 +4402,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4098,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4128,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4557,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4176,7 +4587,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4253,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4268,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4283,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4712,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4316,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4331,7 +4742,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4408,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4423,7 +4834,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4438,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,46 +4858,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I20" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N20" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4498,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4513,10 +4924,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4528,10 +4939,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4545,7 +4956,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4563,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4578,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4593,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,46 +5013,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>3544542</v>
+        <v>400169</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6569</v>
+        <v>603</v>
       </c>
       <c r="N23" s="7">
-        <v>6938892</v>
+        <v>657167</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4653,63 +5064,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4722,8 +5289,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC06FC0-AA95-4C85-99D4-82C4EFBD8817}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2153D5C5-CDF5-4C9A-994A-52E1B590C4C1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4739,7 +5306,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4843,46 +5410,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>17786</v>
+        <v>16652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>26778</v>
+        <v>24480</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>44565</v>
+        <v>41131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,46 +5461,46 @@
         <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>359893</v>
+        <v>383335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>328179</v>
+        <v>288720</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>688071</v>
+        <v>672056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +5512,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4960,7 +5527,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4975,7 +5542,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4998,46 +5565,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>16873</v>
+        <v>14583</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>14891</v>
+        <v>12912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>31765</v>
+        <v>27494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,46 +5616,46 @@
         <v>290</v>
       </c>
       <c r="D8" s="7">
-        <v>411523</v>
+        <v>408964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
       </c>
       <c r="I8" s="7">
-        <v>484324</v>
+        <v>499181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
       </c>
       <c r="N8" s="7">
-        <v>895846</v>
+        <v>908146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5667,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5115,7 +5682,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5130,7 +5697,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5153,46 +5720,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>19574</v>
+        <v>18152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>23648</v>
+        <v>21101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>43223</v>
+        <v>39253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,46 +5771,46 @@
         <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>537678</v>
+        <v>518186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>814</v>
       </c>
       <c r="I11" s="7">
-        <v>586799</v>
+        <v>570901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1338</v>
       </c>
       <c r="N11" s="7">
-        <v>1124476</v>
+        <v>1089087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5822,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5270,7 +5837,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5285,7 +5852,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5308,46 +5875,46 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>31079</v>
+        <v>26925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>28180</v>
+        <v>25306</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>59259</v>
+        <v>52230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,46 +5926,46 @@
         <v>639</v>
       </c>
       <c r="D14" s="7">
-        <v>692911</v>
+        <v>860861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>1098</v>
       </c>
       <c r="I14" s="7">
-        <v>719081</v>
+        <v>687575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1737</v>
       </c>
       <c r="N14" s="7">
-        <v>1411993</v>
+        <v>1548437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5977,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5425,7 +5992,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5440,7 +6007,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5463,46 +6030,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>30564</v>
+        <v>26943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>22217</v>
+        <v>19450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>52781</v>
+        <v>46394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,46 +6081,46 @@
         <v>629</v>
       </c>
       <c r="D17" s="7">
-        <v>569593</v>
+        <v>534291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>968</v>
       </c>
       <c r="I17" s="7">
-        <v>574846</v>
+        <v>528455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1597</v>
       </c>
       <c r="N17" s="7">
-        <v>1144439</v>
+        <v>1062745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +6132,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5580,7 +6147,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5595,7 +6162,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5615,49 +6182,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>26010</v>
+        <v>12664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>31543</v>
+        <v>14883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>57553</v>
+        <v>27547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,49 +6233,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>993</v>
+        <v>550</v>
       </c>
       <c r="D20" s="7">
-        <v>671744</v>
+        <v>355501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
-        <v>1657</v>
+        <v>799</v>
       </c>
       <c r="I20" s="7">
-        <v>995094</v>
+        <v>593485</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
-        <v>2650</v>
+        <v>1349</v>
       </c>
       <c r="N20" s="7">
-        <v>1666839</v>
+        <v>948986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5732,10 +6299,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5747,10 +6314,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5764,55 +6331,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>141887</v>
+        <v>10177</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>147258</v>
+        <v>12213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>289145</v>
+        <v>22390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,49 +6388,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3239</v>
+        <v>443</v>
       </c>
       <c r="D23" s="7">
-        <v>3243341</v>
+        <v>272582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
-        <v>5177</v>
+        <v>858</v>
       </c>
       <c r="I23" s="7">
-        <v>3688323</v>
+        <v>413618</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
-        <v>8416</v>
+        <v>1301</v>
       </c>
       <c r="N23" s="7">
-        <v>6931664</v>
+        <v>686200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,63 +6439,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>137</v>
+      </c>
+      <c r="D25" s="7">
+        <v>126095</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
+        <v>190</v>
+      </c>
+      <c r="I25" s="7">
+        <v>130345</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="7">
+        <v>327</v>
+      </c>
+      <c r="N25" s="7">
+        <v>256440</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3239</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3333722</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5177</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3581935</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8416</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6915657</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
